--- a/eclingo_reif_YBE_Propagate_SolvingTime.xlsx
+++ b/eclingo_reif_YBE_Propagate_SolvingTime.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lutelillo/Desktop/solver_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873F630B-9D2E-6A44-AA89-2503FB157F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7AEB55-8352-724C-B651-B54760A695AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="337">
   <si>
     <t>Instance Name</t>
   </si>
@@ -651,27 +651,6 @@
   </si>
   <si>
     <t>eligible_eligible25.lp</t>
-  </si>
-  <si>
-    <t>yale-parameter_yale01.lp</t>
-  </si>
-  <si>
-    <t>yale-parameter_yale02.lp</t>
-  </si>
-  <si>
-    <t>yale-parameter_yale03.lp</t>
-  </si>
-  <si>
-    <t>yale-parameter_yale04.lp</t>
-  </si>
-  <si>
-    <t>yale-parameter_yale05.lp</t>
-  </si>
-  <si>
-    <t>yale-parameter_yale07.lp</t>
-  </si>
-  <si>
-    <t>yale-parameter_yale08.lp</t>
   </si>
   <si>
     <t>yale_yale01.lp</t>
@@ -1406,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
       <selection activeCell="B343" sqref="B343"/>
     </sheetView>
   </sheetViews>
@@ -4937,19 +4916,19 @@
         <v>206</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4957,19 +4936,19 @@
         <v>207</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,19 +4956,19 @@
         <v>208</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4997,19 +4976,19 @@
         <v>209</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -5017,19 +4996,19 @@
         <v>210</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -5037,19 +5016,19 @@
         <v>211</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -5057,19 +5036,19 @@
         <v>212</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -5077,19 +5056,19 @@
         <v>213</v>
       </c>
       <c r="B184">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C184">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D184">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E184">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F184">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -5097,19 +5076,19 @@
         <v>214</v>
       </c>
       <c r="B185">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C185">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D185">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E185">
-        <v>2E-3</v>
+        <v>4.5000000000000014E-3</v>
       </c>
       <c r="F185">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,19 +5096,19 @@
         <v>215</v>
       </c>
       <c r="B186">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C186">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D186">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E186">
-        <v>4.0000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F186">
-        <v>4.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -5137,19 +5116,19 @@
         <v>216</v>
       </c>
       <c r="B187">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C187">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D187">
-        <v>4.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E187">
-        <v>4.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F187">
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -5157,19 +5136,19 @@
         <v>217</v>
       </c>
       <c r="B188">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C188">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D188">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E188">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F188">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -5177,19 +5156,19 @@
         <v>218</v>
       </c>
       <c r="B189">
-        <v>2.5999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C189">
-        <v>2.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D189">
-        <v>2.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E189">
-        <v>2.5999999999999999E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="F189">
-        <v>2.5999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -5197,19 +5176,19 @@
         <v>219</v>
       </c>
       <c r="B190">
-        <v>1.7000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C190">
-        <v>1.7000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D190">
-        <v>1.7000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E190">
-        <v>1.7000000000000001E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F190">
-        <v>1.7000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -5217,19 +5196,19 @@
         <v>220</v>
       </c>
       <c r="B191">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C191">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D191">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E191">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F191">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -5237,19 +5216,19 @@
         <v>221</v>
       </c>
       <c r="B192">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C192">
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D192">
-        <v>4.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E192">
-        <v>4.5000000000000014E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F192">
-        <v>5.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -5257,19 +5236,19 @@
         <v>222</v>
       </c>
       <c r="B193">
-        <v>6.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C193">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D193">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="E193">
-        <v>5.4999999999999997E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F193">
-        <v>6.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -5277,19 +5256,19 @@
         <v>223</v>
       </c>
       <c r="B194">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C194">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D194">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E194">
-        <v>7.4999999999999997E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F194">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -5297,19 +5276,19 @@
         <v>224</v>
       </c>
       <c r="B195">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C195">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D195">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E195">
-        <v>0.01</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F195">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -5317,19 +5296,19 @@
         <v>225</v>
       </c>
       <c r="B196">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="C196">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D196">
-        <v>8.0000000000000002E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E196">
-        <v>8.5000000000000006E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F196">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -5337,19 +5316,19 @@
         <v>226</v>
       </c>
       <c r="B197">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C197">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D197">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E197">
-        <v>5.4999999999999997E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F197">
-        <v>6.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -5357,19 +5336,19 @@
         <v>227</v>
       </c>
       <c r="B198">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C198">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D198">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E198">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F198">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -5377,19 +5356,19 @@
         <v>228</v>
       </c>
       <c r="B199">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C199">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D199">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E199">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="F199">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -5397,19 +5376,19 @@
         <v>229</v>
       </c>
       <c r="B200">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C200">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D200">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E200">
-        <v>1.0999999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="F200">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,19 +5396,19 @@
         <v>230</v>
       </c>
       <c r="B201">
-        <v>0.01</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C201">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D201">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E201">
-        <v>0.01</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="F201">
-        <v>0.01</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -5437,19 +5416,19 @@
         <v>231</v>
       </c>
       <c r="B202">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C202">
-        <v>7.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D202">
-        <v>7.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E202">
-        <v>7.4999999999999997E-3</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F202">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -5457,19 +5436,19 @@
         <v>232</v>
       </c>
       <c r="B203">
-        <v>1.2E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="C203">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D203">
-        <v>1.2E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E203">
-        <v>1.2E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="F203">
-        <v>1.2E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -5477,19 +5456,19 @@
         <v>233</v>
       </c>
       <c r="B204">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C204">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D204">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E204">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F204">
-        <v>1.4E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -5497,19 +5476,19 @@
         <v>234</v>
       </c>
       <c r="B205">
-        <v>1.6E-2</v>
+        <v>0.109</v>
       </c>
       <c r="C205">
-        <v>1.6E-2</v>
+        <v>0.129</v>
       </c>
       <c r="D205">
-        <v>1.6E-2</v>
+        <v>0.109</v>
       </c>
       <c r="E205">
-        <v>1.6E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="F205">
-        <v>1.6E-2</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -5517,19 +5496,19 @@
         <v>235</v>
       </c>
       <c r="B206">
-        <v>1.2999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C206">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D206">
-        <v>1.2999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E206">
-        <v>1.2999999999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="F206">
-        <v>1.2999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -5537,19 +5516,19 @@
         <v>236</v>
       </c>
       <c r="B207">
-        <v>8.9999999999999993E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C207">
-        <v>0.01</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D207">
-        <v>8.9999999999999993E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="E207">
-        <v>9.4999999999999998E-3</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="F207">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -5557,179 +5536,179 @@
         <v>237</v>
       </c>
       <c r="B208">
-        <v>0.10100000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C208">
-        <v>0.1</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D208">
-        <v>0.1</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E208">
-        <v>0.10050000000000001</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F208">
-        <v>0.10100000000000001</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="B209">
-        <v>1.6E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="C209">
-        <v>1.6E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="D209">
-        <v>1.6E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E209">
-        <v>1.6E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="F209">
-        <v>1.6E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B210">
-        <v>2.1000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C210">
-        <v>2.4E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D210">
-        <v>2.1000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E210">
-        <v>2.2499999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="F210">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B211">
-        <v>1.4999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C211">
-        <v>1.4999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D211">
-        <v>1.4999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E211">
-        <v>1.4999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F211">
-        <v>1.4999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B212">
-        <v>0.109</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C212">
-        <v>0.129</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D212">
-        <v>0.109</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E212">
-        <v>0.11899999999999999</v>
+        <v>2.75E-2</v>
       </c>
       <c r="F212">
-        <v>0.129</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B213">
-        <v>1.9E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C213">
-        <v>1.7999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D213">
-        <v>1.7999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E213">
-        <v>1.8499999999999999E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="F213">
-        <v>1.9E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B214">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C214">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D214">
-        <v>2.4E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E214">
-        <v>2.4500000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F214">
-        <v>2.5000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B215">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="C215">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D215">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E215">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="F215">
-        <v>1.4E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="B216">
-        <v>1E-3</v>
+        <v>0.182</v>
       </c>
       <c r="C216">
-        <v>1E-3</v>
+        <v>0.192</v>
       </c>
       <c r="D216">
-        <v>1E-3</v>
+        <v>0.182</v>
       </c>
       <c r="E216">
-        <v>1E-3</v>
+        <v>0.187</v>
       </c>
       <c r="F216">
-        <v>1E-3</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -5737,19 +5716,19 @@
         <v>245</v>
       </c>
       <c r="B217">
-        <v>2.9000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C217">
-        <v>2.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D217">
-        <v>2.8000000000000001E-2</v>
+        <v>0.04</v>
       </c>
       <c r="E217">
-        <v>2.8500000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F217">
-        <v>2.9000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -5757,19 +5736,19 @@
         <v>246</v>
       </c>
       <c r="B218">
-        <v>2.9000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C218">
-        <v>2.9000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D218">
-        <v>2.9000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E218">
-        <v>2.9000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F218">
-        <v>2.9000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -5777,19 +5756,19 @@
         <v>247</v>
       </c>
       <c r="B219">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C219">
-        <v>2.7E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D219">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E219">
-        <v>2.75E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="F219">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5797,19 +5776,19 @@
         <v>248</v>
       </c>
       <c r="B220">
-        <v>3.1E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C220">
-        <v>0.03</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D220">
-        <v>0.03</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E220">
-        <v>3.0499999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F220">
-        <v>3.1E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -5817,19 +5796,19 @@
         <v>249</v>
       </c>
       <c r="B221">
-        <v>2.9000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C221">
-        <v>2.9000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D221">
-        <v>2.9000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E221">
-        <v>2.9000000000000001E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F221">
-        <v>2.9000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -5837,19 +5816,19 @@
         <v>250</v>
       </c>
       <c r="B222">
-        <v>1.9E-2</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="C222">
-        <v>1.9E-2</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D222">
-        <v>1.9E-2</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E222">
-        <v>1.9E-2</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="F222">
-        <v>1.9E-2</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -5857,179 +5836,179 @@
         <v>251</v>
       </c>
       <c r="B223">
-        <v>0.182</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C223">
-        <v>0.192</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D223">
-        <v>0.182</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E223">
-        <v>0.187</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="F223">
-        <v>0.192</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="B224">
-        <v>4.2000000000000003E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="C224">
-        <v>0.04</v>
+        <v>1E-3</v>
       </c>
       <c r="D224">
-        <v>0.04</v>
+        <v>1E-3</v>
       </c>
       <c r="E224">
-        <v>4.1000000000000002E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="F224">
-        <v>4.2000000000000003E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B225">
-        <v>2.1999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C225">
-        <v>2.1999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D225">
-        <v>2.1999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E225">
-        <v>2.1999999999999999E-2</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="F225">
-        <v>2.1999999999999999E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B226">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C226">
-        <v>2.5999999999999999E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D226">
-        <v>2.5000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E226">
-        <v>2.5499999999999998E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="F226">
-        <v>2.5999999999999999E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B227">
-        <v>2.8000000000000001E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C227">
-        <v>2.5999999999999999E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D227">
-        <v>2.5999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E227">
-        <v>2.7E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="F227">
-        <v>2.8000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B228">
-        <v>3.9E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="C228">
-        <v>4.2000000000000003E-2</v>
+        <v>0.153</v>
       </c>
       <c r="D228">
-        <v>3.9E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="E228">
-        <v>4.0500000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="F228">
-        <v>4.2000000000000003E-2</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B229">
-        <v>0.33600000000000002</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C229">
-        <v>0.33400000000000002</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D229">
-        <v>0.33400000000000002</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E229">
-        <v>0.33500000000000002</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F229">
-        <v>0.33600000000000002</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B230">
-        <v>4.5999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="C230">
-        <v>4.4999999999999998E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D230">
-        <v>4.4999999999999998E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E230">
-        <v>4.5499999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F230">
-        <v>4.5999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="B231">
-        <v>1E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C231">
-        <v>1E-3</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D231">
-        <v>1E-3</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E231">
-        <v>1E-3</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="F231">
-        <v>1E-3</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -6037,19 +6016,19 @@
         <v>259</v>
       </c>
       <c r="B232">
-        <v>5.8000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C232">
-        <v>5.8999999999999997E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D232">
-        <v>5.8000000000000003E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="E232">
-        <v>5.8500000000000003E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F232">
-        <v>5.8999999999999997E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -6057,164 +6036,164 @@
         <v>260</v>
       </c>
       <c r="B233">
-        <v>0.05</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="C233">
-        <v>4.9000000000000002E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D233">
-        <v>4.9000000000000002E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="E233">
-        <v>4.9500000000000002E-2</v>
+        <v>9.2499999999999999E-2</v>
       </c>
       <c r="F233">
-        <v>0.05</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="B234">
-        <v>5.3999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="C234">
-        <v>5.5E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D234">
-        <v>5.3999999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="E234">
-        <v>5.45E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="F234">
-        <v>5.5E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B235">
-        <v>0.14699999999999999</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="C235">
-        <v>0.153</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D235">
-        <v>0.14699999999999999</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E235">
-        <v>0.15</v>
+        <v>9.6500000000000002E-2</v>
       </c>
       <c r="F235">
-        <v>0.153</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B236">
-        <v>4.4999999999999998E-2</v>
+        <v>0.104</v>
       </c>
       <c r="C236">
-        <v>4.2000000000000003E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D236">
-        <v>4.2000000000000003E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E236">
-        <v>4.3499999999999997E-2</v>
+        <v>0.10349999999999999</v>
       </c>
       <c r="F236">
-        <v>4.4999999999999998E-2</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B237">
-        <v>8.2000000000000003E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="C237">
-        <v>0.08</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="D237">
-        <v>0.08</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E237">
-        <v>8.1000000000000003E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F237">
-        <v>8.2000000000000003E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B238">
-        <v>7.4999999999999997E-2</v>
+        <v>2.7240000000000002</v>
       </c>
       <c r="C238">
-        <v>7.3999999999999996E-2</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="D238">
-        <v>7.3999999999999996E-2</v>
+        <v>2.6970000000000001</v>
       </c>
       <c r="E238">
-        <v>7.4499999999999997E-2</v>
+        <v>2.7105000000000001</v>
       </c>
       <c r="F238">
-        <v>7.4999999999999997E-2</v>
+        <v>2.7240000000000002</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B239">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C239">
-        <v>7.0999999999999994E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D239">
-        <v>7.0999999999999994E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="E239">
-        <v>7.2999999999999995E-2</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="F239">
-        <v>7.4999999999999997E-2</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B240">
-        <v>9.1999999999999998E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C240">
-        <v>9.2999999999999999E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D240">
-        <v>9.1999999999999998E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E240">
-        <v>9.2499999999999999E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F240">
-        <v>9.2999999999999999E-2</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B241">
         <v>2E-3</v>
@@ -6234,407 +6213,407 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B242">
-        <v>9.6000000000000002E-2</v>
+        <v>0.152</v>
       </c>
       <c r="C242">
-        <v>9.7000000000000003E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="D242">
-        <v>9.6000000000000002E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="E242">
-        <v>9.6500000000000002E-2</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="F242">
-        <v>9.7000000000000003E-2</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B243">
-        <v>0.104</v>
+        <v>0.09</v>
       </c>
       <c r="C243">
-        <v>0.10299999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D243">
-        <v>0.10299999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E243">
-        <v>0.10349999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F243">
-        <v>0.104</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B244">
-        <v>9.8000000000000004E-2</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C244">
-        <v>9.8000000000000004E-2</v>
+        <v>0.191</v>
       </c>
       <c r="D244">
-        <v>9.8000000000000004E-2</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E244">
-        <v>9.8000000000000004E-2</v>
+        <v>0.186</v>
       </c>
       <c r="F244">
-        <v>9.8000000000000004E-2</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B245">
-        <v>2.7240000000000002</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C245">
-        <v>2.6970000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D245">
-        <v>2.6970000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E245">
-        <v>2.7105000000000001</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="F245">
-        <v>2.7240000000000002</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="B246">
-        <v>0.10199999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="C246">
-        <v>0.10100000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="D246">
-        <v>0.10100000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="E246">
-        <v>0.10150000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="F246">
-        <v>0.10199999999999999</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B247">
-        <v>0.14499999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="C247">
-        <v>0.14099999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D247">
-        <v>0.14099999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E247">
-        <v>0.14299999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="F247">
-        <v>0.14499999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="B248">
-        <v>2E-3</v>
+        <v>0.18</v>
       </c>
       <c r="C248">
-        <v>2E-3</v>
+        <v>0.186</v>
       </c>
       <c r="D248">
-        <v>2E-3</v>
+        <v>0.18</v>
       </c>
       <c r="E248">
-        <v>2E-3</v>
+        <v>0.183</v>
       </c>
       <c r="F248">
-        <v>2E-3</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B249">
-        <v>0.152</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="C249">
-        <v>0.13900000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D249">
-        <v>0.13900000000000001</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E249">
-        <v>0.14549999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F249">
-        <v>0.152</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B250">
-        <v>0.09</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C250">
-        <v>8.7999999999999995E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D250">
-        <v>8.7999999999999995E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E250">
-        <v>8.8999999999999996E-2</v>
+        <v>0.13950000000000001</v>
       </c>
       <c r="F250">
-        <v>0.09</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="B251">
-        <v>0.18099999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="C251">
-        <v>0.191</v>
+        <v>2E-3</v>
       </c>
       <c r="D251">
-        <v>0.18099999999999999</v>
+        <v>2E-3</v>
       </c>
       <c r="E251">
-        <v>0.186</v>
+        <v>2E-3</v>
       </c>
       <c r="F251">
-        <v>0.191</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B252">
-        <v>0.13700000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="C252">
-        <v>0.14599999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="D252">
-        <v>0.13700000000000001</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="E252">
-        <v>0.14149999999999999</v>
+        <v>0.17349999999999999</v>
       </c>
       <c r="F252">
-        <v>0.14599999999999999</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="B253">
-        <v>2E-3</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="C253">
-        <v>2E-3</v>
+        <v>0.159</v>
       </c>
       <c r="D253">
-        <v>2E-3</v>
+        <v>0.159</v>
       </c>
       <c r="E253">
-        <v>2E-3</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="F253">
-        <v>2E-3</v>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B254">
-        <v>0.16300000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C254">
-        <v>0.16900000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="D254">
-        <v>0.16300000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="E254">
-        <v>0.16600000000000001</v>
+        <v>0.22850000000000001</v>
       </c>
       <c r="F254">
-        <v>0.16900000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="B255">
-        <v>0.18</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C255">
-        <v>0.186</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D255">
-        <v>0.18</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E255">
-        <v>0.183</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F255">
-        <v>0.186</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B256">
-        <v>0.20699999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="C256">
-        <v>0.21099999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D256">
-        <v>0.20699999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="E256">
-        <v>0.20899999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F256">
-        <v>0.21099999999999999</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B257">
-        <v>0.14099999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="C257">
-        <v>0.13800000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="D257">
-        <v>0.13800000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="E257">
-        <v>0.13950000000000001</v>
+        <v>0.19950000000000001</v>
       </c>
       <c r="F257">
-        <v>0.14099999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="B258">
-        <v>2E-3</v>
+        <v>0.313</v>
       </c>
       <c r="C258">
-        <v>2E-3</v>
+        <v>0.307</v>
       </c>
       <c r="D258">
-        <v>2E-3</v>
+        <v>0.307</v>
       </c>
       <c r="E258">
-        <v>2E-3</v>
+        <v>0.31</v>
       </c>
       <c r="F258">
-        <v>2E-3</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="B259">
-        <v>0.16400000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C259">
-        <v>0.183</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D259">
-        <v>0.16400000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E259">
-        <v>0.17349999999999999</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F259">
-        <v>0.183</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B260">
-        <v>0.16500000000000001</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="C260">
-        <v>0.159</v>
+        <v>0.23</v>
       </c>
       <c r="D260">
-        <v>0.159</v>
+        <v>0.23</v>
       </c>
       <c r="E260">
-        <v>0.16200000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="F260">
-        <v>0.16500000000000001</v>
+        <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B261">
-        <v>0.23</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="C261">
-        <v>0.22700000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D261">
-        <v>0.22700000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="E261">
-        <v>0.22850000000000001</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="F261">
-        <v>0.23</v>
+        <v>0.47299999999999998</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B262">
         <v>3.0000000000000001E-3</v>
@@ -6654,882 +6633,882 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B263">
-        <v>0.33900000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="C263">
-        <v>0.32500000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="D263">
-        <v>0.32500000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E263">
-        <v>0.33200000000000002</v>
+        <v>0.27350000000000002</v>
       </c>
       <c r="F263">
-        <v>0.33900000000000002</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B264">
-        <v>0.20499999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="C264">
-        <v>0.19400000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D264">
-        <v>0.19400000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E264">
-        <v>0.19950000000000001</v>
+        <v>0.443</v>
       </c>
       <c r="F264">
-        <v>0.20499999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>287</v>
+        <v>190</v>
       </c>
       <c r="B265">
-        <v>0.313</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="C265">
-        <v>0.307</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D265">
-        <v>0.307</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E265">
-        <v>0.31</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="F265">
-        <v>0.313</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="B266">
-        <v>3.0000000000000001E-3</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C266">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="D266">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5</v>
       </c>
       <c r="E266">
-        <v>3.0000000000000001E-3</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="F266">
-        <v>3.0000000000000001E-3</v>
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B267">
-        <v>0.23599999999999999</v>
+        <v>0.379</v>
       </c>
       <c r="C267">
-        <v>0.23</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="D267">
-        <v>0.23</v>
+        <v>0.379</v>
       </c>
       <c r="E267">
-        <v>0.23300000000000001</v>
+        <v>0.38650000000000001</v>
       </c>
       <c r="F267">
-        <v>0.23599999999999999</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="B268">
-        <v>0.47299999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="C268">
-        <v>0.47299999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D268">
-        <v>0.47299999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E268">
-        <v>0.47299999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F268">
-        <v>0.47299999999999998</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="B269">
-        <v>3.0000000000000001E-3</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="C269">
-        <v>3.0000000000000001E-3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D269">
-        <v>3.0000000000000001E-3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E269">
-        <v>3.0000000000000001E-3</v>
+        <v>0.5615</v>
       </c>
       <c r="F269">
-        <v>3.0000000000000001E-3</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B270">
-        <v>0.27400000000000002</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="C270">
-        <v>0.27300000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D270">
-        <v>0.27300000000000002</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E270">
-        <v>0.27350000000000002</v>
+        <v>0.59050000000000002</v>
       </c>
       <c r="F270">
-        <v>0.27400000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="B271">
-        <v>0.46100000000000002</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C271">
-        <v>0.42499999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D271">
-        <v>0.42499999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="E271">
-        <v>0.443</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F271">
-        <v>0.46100000000000002</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="B272">
-        <v>3.0000000000000001E-3</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="C272">
-        <v>3.0000000000000001E-3</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="D272">
-        <v>3.0000000000000001E-3</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E272">
-        <v>3.0000000000000001E-3</v>
+        <v>0.69950000000000001</v>
       </c>
       <c r="F272">
-        <v>3.0000000000000001E-3</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B273">
-        <v>0.52200000000000002</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="C273">
-        <v>0.5</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="D273">
-        <v>0.5</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E273">
-        <v>0.51100000000000001</v>
+        <v>0.77049999999999996</v>
       </c>
       <c r="F273">
-        <v>0.52200000000000002</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="B274">
-        <v>0.379</v>
+        <v>0.02</v>
       </c>
       <c r="C274">
-        <v>0.39400000000000002</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D274">
-        <v>0.379</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E274">
-        <v>0.38650000000000001</v>
+        <v>1.95E-2</v>
       </c>
       <c r="F274">
-        <v>0.39400000000000002</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="B275">
-        <v>1.7000000000000001E-2</v>
+        <v>0.753</v>
       </c>
       <c r="C275">
-        <v>1.7000000000000001E-2</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="D275">
-        <v>1.7000000000000001E-2</v>
+        <v>0.753</v>
       </c>
       <c r="E275">
-        <v>1.7000000000000001E-2</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="F275">
-        <v>1.7000000000000001E-2</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="B276">
-        <v>0.56299999999999994</v>
+        <v>0.02</v>
       </c>
       <c r="C276">
-        <v>0.56000000000000005</v>
+        <v>0.02</v>
       </c>
       <c r="D276">
-        <v>0.56000000000000005</v>
+        <v>0.02</v>
       </c>
       <c r="E276">
-        <v>0.5615</v>
+        <v>0.02</v>
       </c>
       <c r="F276">
-        <v>0.56299999999999994</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B277">
-        <v>0.57699999999999996</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="C277">
-        <v>0.60399999999999998</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="D277">
-        <v>0.57699999999999996</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="E277">
-        <v>0.59050000000000002</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F277">
-        <v>0.60399999999999998</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="B278">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="C278">
-        <v>1.7999999999999999E-2</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="D278">
-        <v>1.7999999999999999E-2</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="E278">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="F278">
-        <v>1.7999999999999999E-2</v>
+        <v>1.2350000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>296</v>
+        <v>195</v>
       </c>
       <c r="B279">
-        <v>0.72199999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="C279">
-        <v>0.67700000000000005</v>
+        <v>0.02</v>
       </c>
       <c r="D279">
-        <v>0.67700000000000005</v>
+        <v>0.02</v>
       </c>
       <c r="E279">
-        <v>0.69950000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F279">
-        <v>0.72199999999999998</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B280">
-        <v>0.78500000000000003</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="C280">
-        <v>0.75600000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="D280">
-        <v>0.75600000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="E280">
-        <v>0.77049999999999996</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="F280">
-        <v>0.78500000000000003</v>
+        <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B281">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C281">
-        <v>1.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D281">
-        <v>1.9E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E281">
-        <v>1.95E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F281">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B282">
-        <v>0.753</v>
+        <v>0.71</v>
       </c>
       <c r="C282">
-        <v>0.78100000000000003</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="D282">
-        <v>0.753</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E282">
-        <v>0.76700000000000002</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="F282">
-        <v>0.78100000000000003</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B283">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C283">
-        <v>0.02</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D283">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E283">
-        <v>0.02</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F283">
-        <v>0.02</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B284">
-        <v>0.58099999999999996</v>
+        <v>5.5979999999999999</v>
       </c>
       <c r="C284">
-        <v>0.57099999999999995</v>
+        <v>5.6429999999999998</v>
       </c>
       <c r="D284">
-        <v>0.57099999999999995</v>
+        <v>5.5979999999999999</v>
       </c>
       <c r="E284">
-        <v>0.57599999999999996</v>
+        <v>5.6204999999999998</v>
       </c>
       <c r="F284">
-        <v>0.58099999999999996</v>
+        <v>5.6429999999999998</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
       <c r="B285">
-        <v>1.2350000000000001</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C285">
-        <v>1.1830000000000001</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D285">
-        <v>1.1830000000000001</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E285">
-        <v>1.2090000000000001</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="F285">
-        <v>1.2350000000000001</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="B286">
-        <v>0.02</v>
+        <v>1.085</v>
       </c>
       <c r="C286">
-        <v>0.02</v>
+        <v>1.101</v>
       </c>
       <c r="D286">
-        <v>0.02</v>
+        <v>1.085</v>
       </c>
       <c r="E286">
-        <v>0.02</v>
+        <v>1.093</v>
       </c>
       <c r="F286">
-        <v>0.02</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B287">
-        <v>0.70699999999999996</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="C287">
-        <v>0.69099999999999995</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="D287">
-        <v>0.69099999999999995</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="E287">
-        <v>0.69899999999999995</v>
+        <v>0.94300000000000006</v>
       </c>
       <c r="F287">
-        <v>0.70699999999999996</v>
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B288">
-        <v>2.1999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C288">
-        <v>2.1999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D288">
-        <v>2.1999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E288">
-        <v>2.1999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F288">
-        <v>2.1999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B289">
-        <v>0.71</v>
+        <v>1.6919999999999999</v>
       </c>
       <c r="C289">
-        <v>0.70799999999999996</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="D289">
-        <v>0.70799999999999996</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="E289">
-        <v>0.70899999999999996</v>
+        <v>1.669</v>
       </c>
       <c r="F289">
-        <v>0.71</v>
+        <v>1.6919999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B290">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C290">
-        <v>4.3999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D290">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E290">
-        <v>4.2000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F290">
-        <v>4.3999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B291">
-        <v>5.5979999999999999</v>
+        <v>35.564</v>
       </c>
       <c r="C291">
-        <v>5.6429999999999998</v>
+        <v>35.426000000000002</v>
       </c>
       <c r="D291">
-        <v>5.5979999999999999</v>
+        <v>35.426000000000002</v>
       </c>
       <c r="E291">
-        <v>5.6204999999999998</v>
+        <v>35.494999999999997</v>
       </c>
       <c r="F291">
-        <v>5.6429999999999998</v>
+        <v>35.564</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B292">
-        <v>4.2999999999999997E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C292">
-        <v>4.3999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="D292">
-        <v>4.2999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E292">
-        <v>4.3499999999999997E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="F292">
-        <v>4.3999999999999997E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B293">
-        <v>1.085</v>
+        <v>1.46</v>
       </c>
       <c r="C293">
-        <v>1.101</v>
+        <v>1.492</v>
       </c>
       <c r="D293">
-        <v>1.085</v>
+        <v>1.46</v>
       </c>
       <c r="E293">
-        <v>1.093</v>
+        <v>1.476</v>
       </c>
       <c r="F293">
-        <v>1.101</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="B294">
-        <v>0.96199999999999997</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C294">
-        <v>0.92400000000000004</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D294">
-        <v>0.92400000000000004</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E294">
-        <v>0.94300000000000006</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="F294">
-        <v>0.96199999999999997</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B295">
-        <v>4.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C295">
-        <v>4.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D295">
-        <v>4.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E295">
-        <v>4.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F295">
-        <v>4.5999999999999999E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B296">
-        <v>1.6919999999999999</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="C296">
-        <v>1.6459999999999999</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="D296">
-        <v>1.6459999999999999</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="E296">
-        <v>1.669</v>
+        <v>1.9644999999999999</v>
       </c>
       <c r="F296">
-        <v>1.6919999999999999</v>
+        <v>2.0129999999999999</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B297">
-        <v>4.4999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C297">
-        <v>4.4999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D297">
-        <v>4.4999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E297">
-        <v>4.4999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F297">
-        <v>4.4999999999999998E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B298">
-        <v>35.564</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="C298">
-        <v>35.426000000000002</v>
+        <v>1.556</v>
       </c>
       <c r="D298">
-        <v>35.426000000000002</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="E298">
-        <v>35.494999999999997</v>
+        <v>1.492</v>
       </c>
       <c r="F298">
-        <v>35.564</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B299">
-        <v>5.0999999999999997E-2</v>
+        <v>0.109</v>
       </c>
       <c r="C299">
-        <v>4.8000000000000001E-2</v>
+        <v>0.11</v>
       </c>
       <c r="D299">
-        <v>4.8000000000000001E-2</v>
+        <v>0.109</v>
       </c>
       <c r="E299">
-        <v>4.9500000000000002E-2</v>
+        <v>0.1095</v>
       </c>
       <c r="F299">
-        <v>5.0999999999999997E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B300">
-        <v>1.46</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="C300">
-        <v>1.492</v>
+        <v>2.7589999999999999</v>
       </c>
       <c r="D300">
-        <v>1.46</v>
+        <v>2.7519999999999998</v>
       </c>
       <c r="E300">
-        <v>1.476</v>
+        <v>2.7555000000000001</v>
       </c>
       <c r="F300">
-        <v>1.492</v>
+        <v>2.7589999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="B301">
-        <v>1.0999999999999999E-2</v>
+        <v>39.526000000000003</v>
       </c>
       <c r="C301">
-        <v>8.0000000000000002E-3</v>
+        <v>39.042999999999999</v>
       </c>
       <c r="D301">
-        <v>8.0000000000000002E-3</v>
+        <v>39.042999999999999</v>
       </c>
       <c r="E301">
-        <v>9.4999999999999998E-3</v>
+        <v>39.284500000000001</v>
       </c>
       <c r="F301">
-        <v>1.0999999999999999E-2</v>
+        <v>39.526000000000003</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>203</v>
+        <v>306</v>
       </c>
       <c r="B302">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C302">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="D302">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E302">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4329999999999998</v>
       </c>
       <c r="F302">
-        <v>8.0000000000000002E-3</v>
+        <v>2.4359999999999999</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B303">
-        <v>2.0129999999999999</v>
+        <v>2.1110000000000002</v>
       </c>
       <c r="C303">
-        <v>1.9159999999999999</v>
+        <v>2.0369999999999999</v>
       </c>
       <c r="D303">
-        <v>1.9159999999999999</v>
+        <v>2.0369999999999999</v>
       </c>
       <c r="E303">
-        <v>1.9644999999999999</v>
+        <v>2.0739999999999998</v>
       </c>
       <c r="F303">
-        <v>2.0129999999999999</v>
+        <v>2.1110000000000002</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>204</v>
+        <v>308</v>
       </c>
       <c r="B304">
-        <v>8.0000000000000002E-3</v>
+        <v>2.7069999999999999</v>
       </c>
       <c r="C304">
-        <v>8.0000000000000002E-3</v>
+        <v>2.875</v>
       </c>
       <c r="D304">
-        <v>8.0000000000000002E-3</v>
+        <v>2.7069999999999999</v>
       </c>
       <c r="E304">
-        <v>8.0000000000000002E-3</v>
+        <v>2.7909999999999999</v>
       </c>
       <c r="F304">
-        <v>8.0000000000000002E-3</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B305">
-        <v>1.4279999999999999</v>
+        <v>3.452</v>
       </c>
       <c r="C305">
-        <v>1.556</v>
+        <v>3.4</v>
       </c>
       <c r="D305">
-        <v>1.4279999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="E305">
-        <v>1.492</v>
+        <v>3.4260000000000002</v>
       </c>
       <c r="F305">
-        <v>1.556</v>
+        <v>3.452</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="B306">
-        <v>0.109</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="C306">
-        <v>0.11</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="D306">
-        <v>0.109</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="E306">
-        <v>0.1095</v>
+        <v>2.6560000000000001</v>
       </c>
       <c r="F306">
-        <v>0.11</v>
+        <v>2.6760000000000002</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -7537,19 +7516,19 @@
         <v>311</v>
       </c>
       <c r="B307">
-        <v>2.7519999999999998</v>
+        <v>3.524</v>
       </c>
       <c r="C307">
-        <v>2.7589999999999999</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="D307">
-        <v>2.7519999999999998</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="E307">
-        <v>2.7555000000000001</v>
+        <v>3.4874999999999998</v>
       </c>
       <c r="F307">
-        <v>2.7589999999999999</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -7557,19 +7536,19 @@
         <v>312</v>
       </c>
       <c r="B308">
-        <v>39.526000000000003</v>
+        <v>4.0469999999999997</v>
       </c>
       <c r="C308">
-        <v>39.042999999999999</v>
+        <v>3.843</v>
       </c>
       <c r="D308">
-        <v>39.042999999999999</v>
+        <v>3.843</v>
       </c>
       <c r="E308">
-        <v>39.284500000000001</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="F308">
-        <v>39.526000000000003</v>
+        <v>4.0469999999999997</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -7577,19 +7556,19 @@
         <v>313</v>
       </c>
       <c r="B309">
-        <v>2.4300000000000002</v>
+        <v>5.0720000000000001</v>
       </c>
       <c r="C309">
-        <v>2.4359999999999999</v>
+        <v>5.0759999999999996</v>
       </c>
       <c r="D309">
-        <v>2.4300000000000002</v>
+        <v>5.0720000000000001</v>
       </c>
       <c r="E309">
-        <v>2.4329999999999998</v>
+        <v>5.0739999999999998</v>
       </c>
       <c r="F309">
-        <v>2.4359999999999999</v>
+        <v>5.0759999999999996</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -7597,19 +7576,19 @@
         <v>314</v>
       </c>
       <c r="B310">
-        <v>2.1110000000000002</v>
+        <v>7.2969999999999997</v>
       </c>
       <c r="C310">
-        <v>2.0369999999999999</v>
+        <v>7.5049999999999999</v>
       </c>
       <c r="D310">
-        <v>2.0369999999999999</v>
+        <v>7.2969999999999997</v>
       </c>
       <c r="E310">
-        <v>2.0739999999999998</v>
+        <v>7.4009999999999998</v>
       </c>
       <c r="F310">
-        <v>2.1110000000000002</v>
+        <v>7.5049999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -7617,19 +7596,19 @@
         <v>315</v>
       </c>
       <c r="B311">
-        <v>2.7069999999999999</v>
+        <v>7.4829999999999997</v>
       </c>
       <c r="C311">
-        <v>2.875</v>
+        <v>7.976</v>
       </c>
       <c r="D311">
-        <v>2.7069999999999999</v>
+        <v>7.4829999999999997</v>
       </c>
       <c r="E311">
-        <v>2.7909999999999999</v>
+        <v>7.7294999999999998</v>
       </c>
       <c r="F311">
-        <v>2.875</v>
+        <v>7.976</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -7637,19 +7616,19 @@
         <v>316</v>
       </c>
       <c r="B312">
-        <v>3.452</v>
+        <v>7.2380000000000004</v>
       </c>
       <c r="C312">
-        <v>3.4</v>
+        <v>7.1310000000000002</v>
       </c>
       <c r="D312">
-        <v>3.4</v>
+        <v>7.1310000000000002</v>
       </c>
       <c r="E312">
-        <v>3.4260000000000002</v>
+        <v>7.1844999999999999</v>
       </c>
       <c r="F312">
-        <v>3.452</v>
+        <v>7.2380000000000004</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -7657,19 +7636,19 @@
         <v>317</v>
       </c>
       <c r="B313">
-        <v>2.6360000000000001</v>
+        <v>6.9219999999999997</v>
       </c>
       <c r="C313">
-        <v>2.6760000000000002</v>
+        <v>6.7949999999999999</v>
       </c>
       <c r="D313">
-        <v>2.6360000000000001</v>
+        <v>6.7949999999999999</v>
       </c>
       <c r="E313">
-        <v>2.6560000000000001</v>
+        <v>6.8584999999999994</v>
       </c>
       <c r="F313">
-        <v>2.6760000000000002</v>
+        <v>6.9219999999999997</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -7677,19 +7656,19 @@
         <v>318</v>
       </c>
       <c r="B314">
-        <v>3.524</v>
+        <v>19.481000000000002</v>
       </c>
       <c r="C314">
-        <v>3.4510000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D314">
-        <v>3.4510000000000001</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E314">
-        <v>3.4874999999999998</v>
+        <v>19.4405</v>
       </c>
       <c r="F314">
-        <v>3.524</v>
+        <v>19.481000000000002</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -7697,19 +7676,19 @@
         <v>319</v>
       </c>
       <c r="B315">
-        <v>4.0469999999999997</v>
+        <v>9.7409999999999997</v>
       </c>
       <c r="C315">
-        <v>3.843</v>
+        <v>9.7089999999999996</v>
       </c>
       <c r="D315">
-        <v>3.843</v>
+        <v>9.7089999999999996</v>
       </c>
       <c r="E315">
-        <v>3.9449999999999998</v>
+        <v>9.7249999999999996</v>
       </c>
       <c r="F315">
-        <v>4.0469999999999997</v>
+        <v>9.7409999999999997</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -7717,19 +7696,19 @@
         <v>320</v>
       </c>
       <c r="B316">
-        <v>5.0720000000000001</v>
+        <v>14.744</v>
       </c>
       <c r="C316">
-        <v>5.0759999999999996</v>
+        <v>14.631</v>
       </c>
       <c r="D316">
-        <v>5.0720000000000001</v>
+        <v>14.631</v>
       </c>
       <c r="E316">
-        <v>5.0739999999999998</v>
+        <v>14.6875</v>
       </c>
       <c r="F316">
-        <v>5.0759999999999996</v>
+        <v>14.744</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -7737,19 +7716,19 @@
         <v>321</v>
       </c>
       <c r="B317">
-        <v>7.2969999999999997</v>
+        <v>10.231</v>
       </c>
       <c r="C317">
-        <v>7.5049999999999999</v>
+        <v>10.164999999999999</v>
       </c>
       <c r="D317">
-        <v>7.2969999999999997</v>
+        <v>10.164999999999999</v>
       </c>
       <c r="E317">
-        <v>7.4009999999999998</v>
+        <v>10.198</v>
       </c>
       <c r="F317">
-        <v>7.5049999999999999</v>
+        <v>10.231</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -7757,19 +7736,19 @@
         <v>322</v>
       </c>
       <c r="B318">
-        <v>7.4829999999999997</v>
+        <v>11.256</v>
       </c>
       <c r="C318">
-        <v>7.976</v>
+        <v>10.762</v>
       </c>
       <c r="D318">
-        <v>7.4829999999999997</v>
+        <v>10.762</v>
       </c>
       <c r="E318">
-        <v>7.7294999999999998</v>
+        <v>11.009</v>
       </c>
       <c r="F318">
-        <v>7.976</v>
+        <v>11.256</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -7777,19 +7756,19 @@
         <v>323</v>
       </c>
       <c r="B319">
-        <v>7.2380000000000004</v>
+        <v>12.919</v>
       </c>
       <c r="C319">
-        <v>7.1310000000000002</v>
+        <v>12.948</v>
       </c>
       <c r="D319">
-        <v>7.1310000000000002</v>
+        <v>12.919</v>
       </c>
       <c r="E319">
-        <v>7.1844999999999999</v>
+        <v>12.9335</v>
       </c>
       <c r="F319">
-        <v>7.2380000000000004</v>
+        <v>12.948</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -7797,19 +7776,19 @@
         <v>324</v>
       </c>
       <c r="B320">
-        <v>6.9219999999999997</v>
+        <v>12.762</v>
       </c>
       <c r="C320">
-        <v>6.7949999999999999</v>
+        <v>13.334</v>
       </c>
       <c r="D320">
-        <v>6.7949999999999999</v>
+        <v>12.762</v>
       </c>
       <c r="E320">
-        <v>6.8584999999999994</v>
+        <v>13.048</v>
       </c>
       <c r="F320">
-        <v>6.9219999999999997</v>
+        <v>13.334</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -7817,19 +7796,19 @@
         <v>325</v>
       </c>
       <c r="B321">
-        <v>19.481000000000002</v>
+        <v>13.593999999999999</v>
       </c>
       <c r="C321">
-        <v>19.399999999999999</v>
+        <v>13.888</v>
       </c>
       <c r="D321">
-        <v>19.399999999999999</v>
+        <v>13.593999999999999</v>
       </c>
       <c r="E321">
-        <v>19.4405</v>
+        <v>13.741</v>
       </c>
       <c r="F321">
-        <v>19.481000000000002</v>
+        <v>13.888</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -7837,19 +7816,19 @@
         <v>326</v>
       </c>
       <c r="B322">
-        <v>9.7409999999999997</v>
+        <v>172.18</v>
       </c>
       <c r="C322">
-        <v>9.7089999999999996</v>
+        <v>173.21100000000001</v>
       </c>
       <c r="D322">
-        <v>9.7089999999999996</v>
+        <v>172.18</v>
       </c>
       <c r="E322">
-        <v>9.7249999999999996</v>
+        <v>172.69550000000001</v>
       </c>
       <c r="F322">
-        <v>9.7409999999999997</v>
+        <v>173.21100000000001</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -7857,19 +7836,19 @@
         <v>327</v>
       </c>
       <c r="B323">
-        <v>14.744</v>
+        <v>12.138</v>
       </c>
       <c r="C323">
-        <v>14.631</v>
+        <v>12.071999999999999</v>
       </c>
       <c r="D323">
-        <v>14.631</v>
+        <v>12.071999999999999</v>
       </c>
       <c r="E323">
-        <v>14.6875</v>
+        <v>12.105</v>
       </c>
       <c r="F323">
-        <v>14.744</v>
+        <v>12.138</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -7877,19 +7856,19 @@
         <v>328</v>
       </c>
       <c r="B324">
-        <v>10.231</v>
+        <v>20.298999999999999</v>
       </c>
       <c r="C324">
-        <v>10.164999999999999</v>
+        <v>20.052</v>
       </c>
       <c r="D324">
-        <v>10.164999999999999</v>
+        <v>20.052</v>
       </c>
       <c r="E324">
-        <v>10.198</v>
+        <v>20.1755</v>
       </c>
       <c r="F324">
-        <v>10.231</v>
+        <v>20.298999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -7897,19 +7876,19 @@
         <v>329</v>
       </c>
       <c r="B325">
-        <v>11.256</v>
+        <v>45.180999999999997</v>
       </c>
       <c r="C325">
-        <v>10.762</v>
+        <v>45.703000000000003</v>
       </c>
       <c r="D325">
-        <v>10.762</v>
+        <v>45.180999999999997</v>
       </c>
       <c r="E325">
-        <v>11.009</v>
+        <v>45.442</v>
       </c>
       <c r="F325">
-        <v>11.256</v>
+        <v>45.703000000000003</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
@@ -7917,19 +7896,19 @@
         <v>330</v>
       </c>
       <c r="B326">
-        <v>12.919</v>
+        <v>23.47</v>
       </c>
       <c r="C326">
-        <v>12.948</v>
+        <v>22.466999999999999</v>
       </c>
       <c r="D326">
-        <v>12.919</v>
+        <v>22.466999999999999</v>
       </c>
       <c r="E326">
-        <v>12.9335</v>
+        <v>22.968499999999999</v>
       </c>
       <c r="F326">
-        <v>12.948</v>
+        <v>23.47</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -7937,19 +7916,19 @@
         <v>331</v>
       </c>
       <c r="B327">
-        <v>12.762</v>
+        <v>22.364000000000001</v>
       </c>
       <c r="C327">
-        <v>13.334</v>
+        <v>22.65</v>
       </c>
       <c r="D327">
-        <v>12.762</v>
+        <v>22.364000000000001</v>
       </c>
       <c r="E327">
-        <v>13.048</v>
+        <v>22.507000000000001</v>
       </c>
       <c r="F327">
-        <v>13.334</v>
+        <v>22.65</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -7957,173 +7936,33 @@
         <v>332</v>
       </c>
       <c r="B328">
-        <v>13.593999999999999</v>
+        <v>18.908000000000001</v>
       </c>
       <c r="C328">
-        <v>13.888</v>
+        <v>19.594999999999999</v>
       </c>
       <c r="D328">
-        <v>13.593999999999999</v>
+        <v>18.908000000000001</v>
       </c>
       <c r="E328">
-        <v>13.741</v>
+        <v>19.2515</v>
       </c>
       <c r="F328">
-        <v>13.888</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>333</v>
-      </c>
-      <c r="B329">
-        <v>172.18</v>
-      </c>
-      <c r="C329">
-        <v>173.21100000000001</v>
-      </c>
-      <c r="D329">
-        <v>172.18</v>
-      </c>
-      <c r="E329">
-        <v>172.69550000000001</v>
-      </c>
-      <c r="F329">
-        <v>173.21100000000001</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>334</v>
-      </c>
-      <c r="B330">
-        <v>12.138</v>
-      </c>
-      <c r="C330">
-        <v>12.071999999999999</v>
-      </c>
-      <c r="D330">
-        <v>12.071999999999999</v>
-      </c>
-      <c r="E330">
-        <v>12.105</v>
-      </c>
-      <c r="F330">
-        <v>12.138</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>335</v>
-      </c>
-      <c r="B331">
-        <v>20.298999999999999</v>
-      </c>
-      <c r="C331">
-        <v>20.052</v>
-      </c>
-      <c r="D331">
-        <v>20.052</v>
-      </c>
-      <c r="E331">
-        <v>20.1755</v>
-      </c>
-      <c r="F331">
-        <v>20.298999999999999</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>336</v>
-      </c>
-      <c r="B332">
-        <v>45.180999999999997</v>
-      </c>
-      <c r="C332">
-        <v>45.703000000000003</v>
-      </c>
-      <c r="D332">
-        <v>45.180999999999997</v>
-      </c>
-      <c r="E332">
-        <v>45.442</v>
-      </c>
-      <c r="F332">
-        <v>45.703000000000003</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>337</v>
-      </c>
-      <c r="B333">
-        <v>23.47</v>
-      </c>
-      <c r="C333">
-        <v>22.466999999999999</v>
-      </c>
-      <c r="D333">
-        <v>22.466999999999999</v>
-      </c>
-      <c r="E333">
-        <v>22.968499999999999</v>
-      </c>
-      <c r="F333">
-        <v>23.47</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>338</v>
-      </c>
-      <c r="B334">
-        <v>22.364000000000001</v>
-      </c>
-      <c r="C334">
-        <v>22.65</v>
-      </c>
-      <c r="D334">
-        <v>22.364000000000001</v>
-      </c>
-      <c r="E334">
-        <v>22.507000000000001</v>
-      </c>
-      <c r="F334">
-        <v>22.65</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>339</v>
-      </c>
-      <c r="B335">
-        <v>18.908000000000001</v>
-      </c>
-      <c r="C335">
-        <v>19.594999999999999</v>
-      </c>
-      <c r="D335">
-        <v>18.908000000000001</v>
-      </c>
-      <c r="E335">
-        <v>19.2515</v>
-      </c>
-      <c r="F335">
         <v>19.594999999999999</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B339">
-        <f>AVERAGE(E177:E190)</f>
-        <v>4.3571428571428572E-3</v>
+        <f>AVERAGE(E177:E183)</f>
+        <v>8.7142857142857143E-3</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B340">
         <f>AVERAGE(E3:E176)</f>
@@ -8132,20 +7971,20 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B341">
-        <f>AVERAGE(E191:E335)</f>
+        <f>AVERAGE(E184:E328)</f>
         <v>4.0286241379310335</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B342">
-        <f>AVERAGE(E3:E335)</f>
-        <v>130.11761261261256</v>
+        <f>AVERAGE(E3:E328)</f>
+        <v>132.91154907975454</v>
       </c>
     </row>
   </sheetData>
